--- a/Code/Results/Cases/Case_4_68/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_68/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.67052011154471</v>
+        <v>16.60235125631333</v>
       </c>
       <c r="C2">
-        <v>17.99489151381393</v>
+        <v>10.35297868524203</v>
       </c>
       <c r="D2">
-        <v>12.2168921094892</v>
+        <v>14.86559037952263</v>
       </c>
       <c r="E2">
-        <v>13.21413071712284</v>
+        <v>16.26969319116602</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.34864983395417</v>
+        <v>29.58962610198869</v>
       </c>
       <c r="H2">
-        <v>8.379705006640194</v>
+        <v>14.48003855791578</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.855202596929821</v>
+        <v>9.275767282234055</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.87889997525329</v>
+        <v>22.15713680413623</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.0252245405111</v>
+        <v>15.88034851117316</v>
       </c>
       <c r="C3">
-        <v>16.85886630117642</v>
+        <v>9.709045822229147</v>
       </c>
       <c r="D3">
-        <v>11.688146625366</v>
+        <v>14.80044589252489</v>
       </c>
       <c r="E3">
-        <v>12.65193097933157</v>
+        <v>16.204637478889</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>21.77798341511371</v>
+        <v>29.71485210227291</v>
       </c>
       <c r="H3">
-        <v>8.452866958054074</v>
+        <v>14.55259742355067</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.758505391855884</v>
+        <v>9.283182266756789</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.84559858215958</v>
+        <v>22.27594940005278</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.95567964552352</v>
+        <v>15.42018450494558</v>
       </c>
       <c r="C4">
-        <v>16.12229854561187</v>
+        <v>9.289982135954709</v>
       </c>
       <c r="D4">
-        <v>11.35985651667892</v>
+        <v>14.76377113487245</v>
       </c>
       <c r="E4">
-        <v>12.30355753270458</v>
+        <v>16.16836745281891</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>21.47038699672173</v>
+        <v>29.80619064815159</v>
       </c>
       <c r="H4">
-        <v>8.507765546748635</v>
+        <v>14.60053837602079</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.701746140751545</v>
+        <v>9.289174943423262</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.84854452664551</v>
+        <v>22.35597753025775</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.50482391906006</v>
+        <v>15.22866073336323</v>
       </c>
       <c r="C5">
-        <v>15.81233905629731</v>
+        <v>9.113287375673362</v>
       </c>
       <c r="D5">
-        <v>11.22534365820711</v>
+        <v>14.74967304201776</v>
       </c>
       <c r="E5">
-        <v>12.16098533199406</v>
+        <v>16.15452181654948</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.35563688625104</v>
+        <v>29.84701254892002</v>
       </c>
       <c r="H5">
-        <v>8.532506964315402</v>
+        <v>14.62092536776583</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.679278697628693</v>
+        <v>9.291979185297263</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.85531956633074</v>
+        <v>22.39036023304108</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.4290507457578</v>
+        <v>15.1966240624933</v>
       </c>
       <c r="C6">
-        <v>15.76027934274678</v>
+        <v>9.083590813103621</v>
       </c>
       <c r="D6">
-        <v>11.20296949417529</v>
+        <v>14.7473835380891</v>
       </c>
       <c r="E6">
-        <v>12.13728074707079</v>
+        <v>16.15227950218622</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.33721653301692</v>
+        <v>29.85400747895702</v>
       </c>
       <c r="H6">
-        <v>8.536754448825949</v>
+        <v>14.62436194236819</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.675588137792418</v>
+        <v>9.29246670389985</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.85677208328837</v>
+        <v>22.39617613249474</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.94966012702256</v>
+        <v>15.41761742373273</v>
       </c>
       <c r="C7">
-        <v>16.11815797718339</v>
+        <v>9.287623098154969</v>
       </c>
       <c r="D7">
-        <v>11.35804513399654</v>
+        <v>14.76357755887602</v>
       </c>
       <c r="E7">
-        <v>12.30163694058405</v>
+        <v>16.16817692790972</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>21.46879679794236</v>
+        <v>29.80672665203599</v>
       </c>
       <c r="H7">
-        <v>8.508089801841063</v>
+        <v>14.60080988001125</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.701440448627797</v>
+        <v>9.289211295877802</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.84861373912279</v>
+        <v>22.35643407022457</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.11547998749338</v>
+        <v>16.35703285637407</v>
       </c>
       <c r="C8">
-        <v>17.61129701965953</v>
+        <v>10.13588329342839</v>
       </c>
       <c r="D8">
-        <v>12.0354380950284</v>
+        <v>14.84244571897594</v>
       </c>
       <c r="E8">
-        <v>13.02105232230449</v>
+        <v>16.24650614350473</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22.14292702381345</v>
+        <v>29.62978596344811</v>
       </c>
       <c r="H8">
-        <v>8.402774985918395</v>
+        <v>14.50435235971665</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.82132245549772</v>
+        <v>9.278025221446795</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.86238035294457</v>
+        <v>22.19662927739881</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.896218332873</v>
+        <v>18.05679156224383</v>
       </c>
       <c r="C9">
-        <v>20.2298038096098</v>
+        <v>11.61043484536726</v>
       </c>
       <c r="D9">
-        <v>13.32816159436518</v>
+        <v>15.02293572258256</v>
       </c>
       <c r="E9">
-        <v>14.39942721396253</v>
+        <v>16.42873953441852</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>23.80808474004408</v>
+        <v>29.39882474257864</v>
       </c>
       <c r="H9">
-        <v>8.281954262114173</v>
+        <v>14.34216840777776</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.076892551480914</v>
+        <v>9.267506459396198</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.08809429413196</v>
+        <v>21.93979857646943</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.39591108014897</v>
+        <v>19.2090373370403</v>
       </c>
       <c r="C10">
-        <v>21.96639323778972</v>
+        <v>12.57793861869174</v>
       </c>
       <c r="D10">
-        <v>14.24892777324187</v>
+        <v>15.17048571283122</v>
       </c>
       <c r="E10">
-        <v>15.38467026056653</v>
+        <v>16.57930221079355</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.24160994007309</v>
+        <v>29.30159477628506</v>
       </c>
       <c r="H10">
-        <v>8.254822680011468</v>
+        <v>14.23955603662917</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.276828593277442</v>
+        <v>9.26672499660785</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.39171229513804</v>
+        <v>21.78611337907333</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.47418909667777</v>
+        <v>19.71068137225912</v>
       </c>
       <c r="C11">
-        <v>22.71632436791507</v>
+        <v>12.99289636838321</v>
       </c>
       <c r="D11">
-        <v>14.66047254921753</v>
+        <v>15.24066352466681</v>
       </c>
       <c r="E11">
-        <v>15.82582314241876</v>
+        <v>16.65123027841781</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.93878247619084</v>
+        <v>29.27341702199147</v>
       </c>
       <c r="H11">
-        <v>8.257989450953666</v>
+        <v>14.1964902927683</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.370375023763596</v>
+        <v>9.267873214806551</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.56288999394714</v>
+        <v>21.72391299547737</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.87416960645029</v>
+        <v>19.89729826838039</v>
       </c>
       <c r="C12">
-        <v>22.99460227251475</v>
+        <v>13.14641340842233</v>
       </c>
       <c r="D12">
-        <v>14.81520578170387</v>
+        <v>15.26766007652591</v>
       </c>
       <c r="E12">
-        <v>15.99180532826647</v>
+        <v>16.67894437618771</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.209187840842</v>
+        <v>29.26507761954688</v>
       </c>
       <c r="H12">
-        <v>8.261599554086461</v>
+        <v>14.18070399807773</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.406168972997743</v>
+        <v>9.268523659542907</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.63268991731017</v>
+        <v>21.70147748908715</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.78839555860962</v>
+        <v>19.85725725893407</v>
       </c>
       <c r="C13">
-        <v>22.93492289968483</v>
+        <v>13.11351166237903</v>
       </c>
       <c r="D13">
-        <v>14.78193125376471</v>
+        <v>15.2618274206076</v>
       </c>
       <c r="E13">
-        <v>15.95610651590592</v>
+        <v>16.67295474691603</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.15066769100918</v>
+        <v>29.26676966270128</v>
       </c>
       <c r="H13">
-        <v>8.260711918821372</v>
+        <v>14.18408061788902</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.39844367789078</v>
+        <v>9.26837399450565</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.61743249994063</v>
+        <v>21.70625948486583</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.50726215805099</v>
+        <v>19.7261020416233</v>
       </c>
       <c r="C14">
-        <v>22.73933244474156</v>
+        <v>13.00559881456781</v>
       </c>
       <c r="D14">
-        <v>14.67322503951523</v>
+        <v>15.24287619963212</v>
       </c>
       <c r="E14">
-        <v>15.83950035870096</v>
+        <v>16.65350088825805</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.96090102617671</v>
+        <v>29.27268410049446</v>
       </c>
       <c r="H14">
-        <v>8.25823709220804</v>
+        <v>14.1951810750634</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.373312409217478</v>
+        <v>9.267922409299059</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.56853149266831</v>
+        <v>21.72204474406246</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.3339774500339</v>
+        <v>19.6453272192621</v>
       </c>
       <c r="C15">
-        <v>22.61878649539536</v>
+        <v>12.93902790976254</v>
       </c>
       <c r="D15">
-        <v>14.60649347847148</v>
+        <v>15.23132241100751</v>
       </c>
       <c r="E15">
-        <v>15.76793462189845</v>
+        <v>16.64164635412604</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.84549485858042</v>
+        <v>29.27661103765976</v>
       </c>
       <c r="H15">
-        <v>8.257040577332846</v>
+        <v>14.20204844112305</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.357966904156346</v>
+        <v>9.267673863654373</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.53923284709968</v>
+        <v>21.73185960264911</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.32426923490298</v>
+        <v>19.17579107001951</v>
       </c>
       <c r="C16">
-        <v>21.91658199302817</v>
+        <v>12.55031371882471</v>
       </c>
       <c r="D16">
-        <v>14.22187967945277</v>
+        <v>15.16595943070067</v>
       </c>
       <c r="E16">
-        <v>15.35569249798058</v>
+        <v>16.57466920228886</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.19694802609634</v>
+        <v>29.30376127076956</v>
       </c>
       <c r="H16">
-        <v>8.25494318301654</v>
+        <v>14.24244337740519</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.270767004888326</v>
+        <v>9.266680167994366</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.38121042462432</v>
+        <v>21.79033431505535</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.68985904172059</v>
+        <v>18.88189678053897</v>
       </c>
       <c r="C17">
-        <v>21.47557999329338</v>
+        <v>12.30540396539689</v>
       </c>
       <c r="D17">
-        <v>13.98400941876802</v>
+        <v>15.12663181370431</v>
       </c>
       <c r="E17">
-        <v>15.10094152608091</v>
+        <v>16.53444874787722</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.81057006230393</v>
+        <v>29.32454545621051</v>
       </c>
       <c r="H17">
-        <v>8.257756284718624</v>
+        <v>14.26815133070465</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.217934317491377</v>
+        <v>9.266455314412472</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.29290361009194</v>
+        <v>21.82818862053081</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.31941665884171</v>
+        <v>18.71074219947267</v>
       </c>
       <c r="C18">
-        <v>21.21815354212932</v>
+        <v>12.16216949737228</v>
       </c>
       <c r="D18">
-        <v>13.84650608417668</v>
+        <v>15.10430042613813</v>
       </c>
       <c r="E18">
-        <v>14.95375500471405</v>
+        <v>16.51163956614088</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.59258163020841</v>
+        <v>29.33800974418333</v>
       </c>
       <c r="H18">
-        <v>8.260823039683778</v>
+        <v>14.28327781721629</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.187790638760752</v>
+        <v>9.26646756259259</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.24521173493741</v>
+        <v>21.85068672605332</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.1930350240084</v>
+        <v>18.65243259734409</v>
       </c>
       <c r="C19">
-        <v>21.13034370336833</v>
+        <v>12.11326596331446</v>
       </c>
       <c r="D19">
-        <v>13.79983401310923</v>
+        <v>15.09678953600529</v>
       </c>
       <c r="E19">
-        <v>14.9038089830851</v>
+        <v>16.50397303578733</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.51950611139409</v>
+        <v>29.34282709314828</v>
       </c>
       <c r="H19">
-        <v>8.262104757957154</v>
+        <v>14.28845770613803</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.177626593523212</v>
+        <v>9.266496042182894</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.22958926106417</v>
+        <v>21.8584284796169</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.75796626120783</v>
+        <v>18.91340198586823</v>
       </c>
       <c r="C20">
-        <v>21.52291561166761</v>
+        <v>12.33172020326385</v>
       </c>
       <c r="D20">
-        <v>14.00940266964012</v>
+        <v>15.13078854057267</v>
       </c>
       <c r="E20">
-        <v>15.12812907772155</v>
+        <v>16.53869681823806</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.85126178545276</v>
+        <v>29.32217651587633</v>
       </c>
       <c r="H20">
-        <v>8.257305587666806</v>
+        <v>14.26537947557972</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.223533194277479</v>
+        <v>9.266464601637733</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.30198149484758</v>
+        <v>21.82408382901892</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.59006319320553</v>
+        <v>19.76471705044098</v>
       </c>
       <c r="C21">
-        <v>22.7969364468884</v>
+        <v>13.03739362044277</v>
       </c>
       <c r="D21">
-        <v>14.70518515981968</v>
+        <v>15.24843133238955</v>
       </c>
       <c r="E21">
-        <v>15.87377989258041</v>
+        <v>16.65920217090296</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.01646696372931</v>
+        <v>29.27088346106335</v>
       </c>
       <c r="H21">
-        <v>8.258897122168159</v>
+        <v>14.19190642335976</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.380684045647827</v>
+        <v>9.268049203645258</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.58275811066682</v>
+        <v>21.71737780206912</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.73889408213761</v>
+        <v>20.30156673213235</v>
       </c>
       <c r="C22">
-        <v>23.59636278671346</v>
+        <v>13.4775030649493</v>
       </c>
       <c r="D22">
-        <v>15.15343912561575</v>
+        <v>15.32776713237515</v>
       </c>
       <c r="E22">
-        <v>16.35484147001172</v>
+        <v>16.74072802065554</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.81527792028604</v>
+        <v>29.25095519305937</v>
       </c>
       <c r="H22">
-        <v>8.274075637214581</v>
+        <v>14.1469298442617</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.485547818495801</v>
+        <v>9.270341398673118</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.79536916600601</v>
+        <v>21.6541626012149</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.13014177362814</v>
+        <v>20.01685820813953</v>
       </c>
       <c r="C23">
-        <v>23.17271314437217</v>
+        <v>13.24453715848919</v>
       </c>
       <c r="D23">
-        <v>14.9148037976736</v>
+        <v>15.28520607140657</v>
       </c>
       <c r="E23">
-        <v>16.09867679439792</v>
+        <v>16.69696885547621</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.3855499018949</v>
+        <v>29.26034065674179</v>
       </c>
       <c r="H23">
-        <v>8.26462049608678</v>
+        <v>14.17065558327365</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.429383143434817</v>
+        <v>9.269003256732647</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.67916308942246</v>
+        <v>21.68730176021074</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.72719278649984</v>
+        <v>18.89916529825119</v>
       </c>
       <c r="C24">
-        <v>21.50152729453008</v>
+        <v>12.31983020916678</v>
       </c>
       <c r="D24">
-        <v>13.99792470785001</v>
+        <v>15.1289084152624</v>
       </c>
       <c r="E24">
-        <v>15.11583984453704</v>
+        <v>16.53677528594582</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.83285213931662</v>
+        <v>29.32324279576127</v>
       </c>
       <c r="H24">
-        <v>8.257504846705361</v>
+        <v>14.26663155163164</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.221001223738799</v>
+        <v>9.266459962018008</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.29786781662433</v>
+        <v>21.82593731592339</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.92272886467962</v>
+        <v>17.61331370505355</v>
       </c>
       <c r="C25">
-        <v>19.55446284531584</v>
+        <v>11.23184793400959</v>
       </c>
       <c r="D25">
-        <v>12.98310558114968</v>
+        <v>14.97142194316469</v>
       </c>
       <c r="E25">
-        <v>14.03090216756837</v>
+        <v>16.37645148708101</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.32059213043373</v>
+        <v>29.44869798086624</v>
       </c>
       <c r="H25">
-        <v>8.304517738749526</v>
+        <v>14.38314572948062</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.005595221647242</v>
+        <v>9.269130806334404</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.00396867653108</v>
+        <v>22.00316874956335</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_68/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_68/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.60235125631333</v>
+        <v>24.67052011154468</v>
       </c>
       <c r="C2">
-        <v>10.35297868524203</v>
+        <v>17.99489151381395</v>
       </c>
       <c r="D2">
-        <v>14.86559037952263</v>
+        <v>12.2168921094891</v>
       </c>
       <c r="E2">
-        <v>16.26969319116602</v>
+        <v>13.21413071712281</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>29.58962610198869</v>
+        <v>22.34864983395409</v>
       </c>
       <c r="H2">
-        <v>14.48003855791578</v>
+        <v>8.379705006640064</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.275767282234055</v>
+        <v>5.855202596929911</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.15713680413623</v>
+        <v>13.87889997525321</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.88034851117316</v>
+        <v>23.02522454051115</v>
       </c>
       <c r="C3">
-        <v>9.709045822229147</v>
+        <v>16.85886630117639</v>
       </c>
       <c r="D3">
-        <v>14.80044589252489</v>
+        <v>11.68814662536603</v>
       </c>
       <c r="E3">
-        <v>16.204637478889</v>
+        <v>12.65193097933162</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>29.71485210227291</v>
+        <v>21.77798341511349</v>
       </c>
       <c r="H3">
-        <v>14.55259742355067</v>
+        <v>8.452866958054015</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.283182266756789</v>
+        <v>5.758505391855947</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.27594940005278</v>
+        <v>13.84559858215944</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.42018450494558</v>
+        <v>21.95567964552355</v>
       </c>
       <c r="C4">
-        <v>9.289982135954709</v>
+        <v>16.12229854561178</v>
       </c>
       <c r="D4">
-        <v>14.76377113487245</v>
+        <v>11.35985651667897</v>
       </c>
       <c r="E4">
-        <v>16.16836745281891</v>
+        <v>12.30355753270452</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>29.80619064815159</v>
+        <v>21.47038699672187</v>
       </c>
       <c r="H4">
-        <v>14.60053837602079</v>
+        <v>8.50776554674863</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.289174943423262</v>
+        <v>5.701746140751478</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.35597753025775</v>
+        <v>13.84854452664561</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.22866073336323</v>
+        <v>21.50482391906006</v>
       </c>
       <c r="C5">
-        <v>9.113287375673362</v>
+        <v>15.81233905629728</v>
       </c>
       <c r="D5">
-        <v>14.74967304201776</v>
+        <v>11.22534365820718</v>
       </c>
       <c r="E5">
-        <v>16.15452181654948</v>
+        <v>12.16098533199408</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>29.84701254892002</v>
+        <v>21.35563688625125</v>
       </c>
       <c r="H5">
-        <v>14.62092536776583</v>
+        <v>8.532506964315516</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.291979185297263</v>
+        <v>5.679278697628691</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.39036023304108</v>
+        <v>13.85531956633085</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.1966240624933</v>
+        <v>21.42905074575776</v>
       </c>
       <c r="C6">
-        <v>9.083590813103621</v>
+        <v>15.76027934274675</v>
       </c>
       <c r="D6">
-        <v>14.7473835380891</v>
+        <v>11.20296949417538</v>
       </c>
       <c r="E6">
-        <v>16.15227950218622</v>
+        <v>12.13728074707092</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>29.85400747895702</v>
+        <v>21.33721653301713</v>
       </c>
       <c r="H6">
-        <v>14.62436194236819</v>
+        <v>8.536754448825953</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.29246670389985</v>
+        <v>5.67558813779249</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.39617613249474</v>
+        <v>13.85677208328848</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.41761742373273</v>
+        <v>21.94966012702256</v>
       </c>
       <c r="C7">
-        <v>9.287623098154969</v>
+        <v>16.11815797718337</v>
       </c>
       <c r="D7">
-        <v>14.76357755887602</v>
+        <v>11.35804513399655</v>
       </c>
       <c r="E7">
-        <v>16.16817692790972</v>
+        <v>12.30163694058407</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>29.80672665203599</v>
+        <v>21.46879679794242</v>
       </c>
       <c r="H7">
-        <v>14.60080988001125</v>
+        <v>8.508089801841008</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.289211295877802</v>
+        <v>5.701440448627797</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.35643407022457</v>
+        <v>13.84861373912277</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.35703285637407</v>
+        <v>24.11547998749337</v>
       </c>
       <c r="C8">
-        <v>10.13588329342839</v>
+        <v>17.61129701965951</v>
       </c>
       <c r="D8">
-        <v>14.84244571897594</v>
+        <v>12.03543809502851</v>
       </c>
       <c r="E8">
-        <v>16.24650614350473</v>
+        <v>13.02105232230455</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>29.62978596344811</v>
+        <v>22.14292702381346</v>
       </c>
       <c r="H8">
-        <v>14.50435235971665</v>
+        <v>8.402774985918496</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.278025221446795</v>
+        <v>5.821322455497657</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.19662927739881</v>
+        <v>13.86238035294462</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.05679156224383</v>
+        <v>27.89621833287303</v>
       </c>
       <c r="C9">
-        <v>11.61043484536726</v>
+        <v>20.22980380960982</v>
       </c>
       <c r="D9">
-        <v>15.02293572258256</v>
+        <v>13.32816159436519</v>
       </c>
       <c r="E9">
-        <v>16.42873953441852</v>
+        <v>14.39942721396251</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>29.39882474257864</v>
+        <v>23.80808474004394</v>
       </c>
       <c r="H9">
-        <v>14.34216840777776</v>
+        <v>8.28195426211413</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.267506459396198</v>
+        <v>6.076892551480904</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.93979857646943</v>
+        <v>14.08809429413185</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.2090373370403</v>
+        <v>30.39591108014903</v>
       </c>
       <c r="C10">
-        <v>12.57793861869174</v>
+        <v>21.96639323778966</v>
       </c>
       <c r="D10">
-        <v>15.17048571283122</v>
+        <v>14.24892777324189</v>
       </c>
       <c r="E10">
-        <v>16.57930221079355</v>
+        <v>15.38467026056656</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.30159477628506</v>
+        <v>25.24160994007307</v>
       </c>
       <c r="H10">
-        <v>14.23955603662917</v>
+        <v>8.254822680011456</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.26672499660785</v>
+        <v>6.276828593277463</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.78611337907333</v>
+        <v>14.39171229513799</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.71068137225912</v>
+        <v>31.47418909667772</v>
       </c>
       <c r="C11">
-        <v>12.99289636838321</v>
+        <v>22.71632436791515</v>
       </c>
       <c r="D11">
-        <v>15.24066352466681</v>
+        <v>14.66047254921754</v>
       </c>
       <c r="E11">
-        <v>16.65123027841781</v>
+        <v>15.82582314241875</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.27341702199147</v>
+        <v>25.93878247619092</v>
       </c>
       <c r="H11">
-        <v>14.1964902927683</v>
+        <v>8.257989450953678</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.267873214806551</v>
+        <v>6.370375023763579</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.72391299547737</v>
+        <v>14.56288999394718</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.89729826838039</v>
+        <v>31.87416960645036</v>
       </c>
       <c r="C12">
-        <v>13.14641340842233</v>
+        <v>22.99460227251476</v>
       </c>
       <c r="D12">
-        <v>15.26766007652591</v>
+        <v>14.81520578170388</v>
       </c>
       <c r="E12">
-        <v>16.67894437618771</v>
+        <v>15.99180532826647</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29.26507761954688</v>
+        <v>26.20918784084204</v>
       </c>
       <c r="H12">
-        <v>14.18070399807773</v>
+        <v>8.261599554086454</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.268523659542907</v>
+        <v>6.406168972997782</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.70147748908715</v>
+        <v>14.63268991731018</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.85725725893407</v>
+        <v>31.78839555860962</v>
       </c>
       <c r="C13">
-        <v>13.11351166237903</v>
+        <v>22.93492289968478</v>
       </c>
       <c r="D13">
-        <v>15.2618274206076</v>
+        <v>14.78193125376471</v>
       </c>
       <c r="E13">
-        <v>16.67295474691603</v>
+        <v>15.95610651590591</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29.26676966270128</v>
+        <v>26.15066769100914</v>
       </c>
       <c r="H13">
-        <v>14.18408061788902</v>
+        <v>8.260711918821352</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.26837399450565</v>
+        <v>6.398443677890777</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.70625948486583</v>
+        <v>14.61743249994063</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.7261020416233</v>
+        <v>31.507262158051</v>
       </c>
       <c r="C14">
-        <v>13.00559881456781</v>
+        <v>22.73933244474152</v>
       </c>
       <c r="D14">
-        <v>15.24287619963212</v>
+        <v>14.67322503951521</v>
       </c>
       <c r="E14">
-        <v>16.65350088825805</v>
+        <v>15.83950035870092</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>29.27268410049446</v>
+        <v>25.96090102617675</v>
       </c>
       <c r="H14">
-        <v>14.1951810750634</v>
+        <v>8.258237092207962</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.267922409299059</v>
+        <v>6.373312409217456</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.72204474406246</v>
+        <v>14.56853149266832</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.6453272192621</v>
+        <v>31.33397745003386</v>
       </c>
       <c r="C15">
-        <v>12.93902790976254</v>
+        <v>22.61878649539529</v>
       </c>
       <c r="D15">
-        <v>15.23132241100751</v>
+        <v>14.60649347847152</v>
       </c>
       <c r="E15">
-        <v>16.64164635412604</v>
+        <v>15.76793462189848</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>29.27661103765976</v>
+        <v>25.84549485858053</v>
       </c>
       <c r="H15">
-        <v>14.20204844112305</v>
+        <v>8.257040577332894</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.267673863654373</v>
+        <v>6.357966904156351</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.73185960264911</v>
+        <v>14.53923284709976</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.17579107001951</v>
+        <v>30.32426923490295</v>
       </c>
       <c r="C16">
-        <v>12.55031371882471</v>
+        <v>21.91658199302826</v>
       </c>
       <c r="D16">
-        <v>15.16595943070067</v>
+        <v>14.22187967945275</v>
       </c>
       <c r="E16">
-        <v>16.57466920228886</v>
+        <v>15.35569249798057</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>29.30376127076956</v>
+        <v>25.19694802609638</v>
       </c>
       <c r="H16">
-        <v>14.24244337740519</v>
+        <v>8.25494318301654</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.266680167994366</v>
+        <v>6.270767004888364</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.79033431505535</v>
+        <v>14.38121042462431</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.88189678053897</v>
+        <v>29.68985904172061</v>
       </c>
       <c r="C17">
-        <v>12.30540396539689</v>
+        <v>21.47557999329339</v>
       </c>
       <c r="D17">
-        <v>15.12663181370431</v>
+        <v>13.98400941876802</v>
       </c>
       <c r="E17">
-        <v>16.53444874787722</v>
+        <v>15.10094152608094</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>29.32454545621051</v>
+        <v>24.81057006230402</v>
       </c>
       <c r="H17">
-        <v>14.26815133070465</v>
+        <v>8.257756284718603</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.266455314412472</v>
+        <v>6.217934317491452</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.82818862053081</v>
+        <v>14.29290361009192</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.71074219947267</v>
+        <v>29.31941665884176</v>
       </c>
       <c r="C18">
-        <v>12.16216949737228</v>
+        <v>21.21815354212931</v>
       </c>
       <c r="D18">
-        <v>15.10430042613813</v>
+        <v>13.84650608417666</v>
       </c>
       <c r="E18">
-        <v>16.51163956614088</v>
+        <v>14.95375500471403</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>29.33800974418333</v>
+        <v>24.59258163020836</v>
       </c>
       <c r="H18">
-        <v>14.28327781721629</v>
+        <v>8.260823039683697</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.26646756259259</v>
+        <v>6.187790638760722</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.85068672605332</v>
+        <v>14.24521173493733</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.65243259734409</v>
+        <v>29.19303502400836</v>
       </c>
       <c r="C19">
-        <v>12.11326596331446</v>
+        <v>21.13034370336834</v>
       </c>
       <c r="D19">
-        <v>15.09678953600529</v>
+        <v>13.79983401310923</v>
       </c>
       <c r="E19">
-        <v>16.50397303578733</v>
+        <v>14.90380898308507</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>29.34282709314828</v>
+        <v>24.5195061113941</v>
       </c>
       <c r="H19">
-        <v>14.28845770613803</v>
+        <v>8.262104757957161</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.266496042182894</v>
+        <v>6.177626593523173</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.8584284796169</v>
+        <v>14.22958926106421</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.91340198586823</v>
+        <v>29.75796626120774</v>
       </c>
       <c r="C20">
-        <v>12.33172020326385</v>
+        <v>21.52291561166761</v>
       </c>
       <c r="D20">
-        <v>15.13078854057267</v>
+        <v>14.0094026696401</v>
       </c>
       <c r="E20">
-        <v>16.53869681823806</v>
+        <v>15.12812907772152</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>29.32217651587633</v>
+        <v>24.8512617854529</v>
       </c>
       <c r="H20">
-        <v>14.26537947557972</v>
+        <v>8.257305587666917</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.266464601637733</v>
+        <v>6.223533194277482</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.82408382901892</v>
+        <v>14.30198149484771</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.76471705044098</v>
+        <v>31.59006319320552</v>
       </c>
       <c r="C21">
-        <v>13.03739362044277</v>
+        <v>22.79693644688848</v>
       </c>
       <c r="D21">
-        <v>15.24843133238955</v>
+        <v>14.70518515981977</v>
       </c>
       <c r="E21">
-        <v>16.65920217090296</v>
+        <v>15.87377989258047</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.27088346106335</v>
+        <v>26.01646696372932</v>
       </c>
       <c r="H21">
-        <v>14.19190642335976</v>
+        <v>8.258897122168147</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.268049203645258</v>
+        <v>6.380684045647837</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.71737780206912</v>
+        <v>14.58275811066681</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.30156673213235</v>
+        <v>32.73889408213756</v>
       </c>
       <c r="C22">
-        <v>13.4775030649493</v>
+        <v>23.59636278671341</v>
       </c>
       <c r="D22">
-        <v>15.32776713237515</v>
+        <v>15.15343912561577</v>
       </c>
       <c r="E22">
-        <v>16.74072802065554</v>
+        <v>16.35484147001173</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.25095519305937</v>
+        <v>26.81527792028607</v>
       </c>
       <c r="H22">
-        <v>14.1469298442617</v>
+        <v>8.27407563721461</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.270341398673118</v>
+        <v>6.485547818495808</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.6541626012149</v>
+        <v>14.79536916600604</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.01685820813953</v>
+        <v>32.1301417736281</v>
       </c>
       <c r="C23">
-        <v>13.24453715848919</v>
+        <v>23.17271314437217</v>
       </c>
       <c r="D23">
-        <v>15.28520607140657</v>
+        <v>14.9148037976736</v>
       </c>
       <c r="E23">
-        <v>16.69696885547621</v>
+        <v>16.09867679439791</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.26034065674179</v>
+        <v>26.38554990189494</v>
       </c>
       <c r="H23">
-        <v>14.17065558327365</v>
+        <v>8.264620496086868</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.269003256732647</v>
+        <v>6.429383143434825</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.68730176021074</v>
+        <v>14.67916308942255</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.89916529825119</v>
+        <v>29.72719278649987</v>
       </c>
       <c r="C24">
-        <v>12.31983020916678</v>
+        <v>21.50152729453004</v>
       </c>
       <c r="D24">
-        <v>15.1289084152624</v>
+        <v>13.99792470784998</v>
       </c>
       <c r="E24">
-        <v>16.53677528594582</v>
+        <v>15.11583984453703</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29.32324279576127</v>
+        <v>24.83285213931653</v>
       </c>
       <c r="H24">
-        <v>14.26663155163164</v>
+        <v>8.257504846705309</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.266459962018008</v>
+        <v>6.221001223738825</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.82593731592339</v>
+        <v>14.29786781662425</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.61331370505355</v>
+        <v>26.92272886467961</v>
       </c>
       <c r="C25">
-        <v>11.23184793400959</v>
+        <v>19.55446284531582</v>
       </c>
       <c r="D25">
-        <v>14.97142194316469</v>
+        <v>12.98310558114969</v>
       </c>
       <c r="E25">
-        <v>16.37645148708101</v>
+        <v>14.03090216756842</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>29.44869798086624</v>
+        <v>23.32059213043382</v>
       </c>
       <c r="H25">
-        <v>14.38314572948062</v>
+        <v>8.304517738749539</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.269130806334404</v>
+        <v>6.005595221647289</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.00316874956335</v>
+        <v>14.00396867653115</v>
       </c>
     </row>
   </sheetData>
